--- a/Leather Company - Feb 2024 - Leather Jackets.xlsx
+++ b/Leather Company - Feb 2024 - Leather Jackets.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,22 +457,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>customs_description</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>colour</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>attribute_summary</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -618,7 +618,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -676,7 +676,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -697,26 +697,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>2159</t>
-        </is>
-      </c>
+      <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Size: 12</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -725,14 +717,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>124</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -742,14 +734,14 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -758,32 +750,40 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>2810</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>196</v>
+      </c>
+      <c r="G10" t="n">
         <v>3</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>147</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>49</v>
-      </c>
-      <c r="I10" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -792,23 +792,23 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>294</v>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>98</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
@@ -817,23 +817,23 @@
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
+        <v>49</v>
+      </c>
+      <c r="I12" t="n">
         <v>98</v>
-      </c>
-      <c r="I12" t="n">
-        <v>196</v>
       </c>
     </row>
     <row r="13">
@@ -842,43 +842,39 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
+      <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -887,32 +883,36 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I15" t="n">
-        <v>245</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -921,23 +921,23 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="I16" t="n">
-        <v>98</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17">
@@ -946,23 +946,23 @@
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18">
@@ -971,88 +971,80 @@
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>3054</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I19" t="n">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>Size: 20</t>
-        </is>
-      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n">
-        <v>129</v>
+        <v>1698</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="I20" t="n">
-        <v>129</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>7602 F</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -1062,47 +1054,39 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>665</v>
+        <v>129</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>AWL-281</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1111,31 +1095,23 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>269</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>AWL-529</t>
-        </is>
-      </c>
+      <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>Size: 16</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1144,126 +1120,130 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>AWL-672</t>
+          <t>7602 F</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>149</v>
+        <v>665</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="I24" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>AWL-719</t>
+          <t>AWL-281</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>AWL-738</t>
+          <t>AWL-529</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>AWL-672</t>
+        </is>
+      </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1272,97 +1252,93 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>318</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>ESMARALDA</t>
+          <t>AWL-719</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I28" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>FO-ETHEL</t>
+          <t>AWL-738</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I29" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>G 2131</t>
-        </is>
-      </c>
+      <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1371,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>109</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31">
@@ -1379,19 +1355,15 @@
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>Size: 10</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1400,41 +1372,57 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>219</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ESMARALDA</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>109</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>FO-ETHEL</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1455,22 +1443,26 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>G 2131</t>
+        </is>
+      </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1479,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1487,25 +1479,25 @@
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>109</v>
@@ -1517,7 +1509,7 @@
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1527,13 +1519,13 @@
         <v>109</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I36" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1542,23 +1534,23 @@
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I37" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1567,14 +1559,14 @@
       <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1583,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -1592,23 +1584,23 @@
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -1616,53 +1608,57 @@
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Timber</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42">
@@ -1671,20 +1667,20 @@
       <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
+        <v>219</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
         <v>109</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>109</v>
@@ -1696,7 +1692,7 @@
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1721,7 +1717,7 @@
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1743,54 +1739,46 @@
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
-      </c>
+      <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I45" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>G-CELIA22</t>
-        </is>
-      </c>
+      <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Burgundy</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1799,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>229</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
@@ -1808,23 +1796,23 @@
       <c r="C47" s="1" t="n"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
@@ -1833,14 +1821,14 @@
       <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1849,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49">
@@ -1857,19 +1845,19 @@
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Cognac</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1878,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>229</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50">
@@ -1886,35 +1874,31 @@
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>Size: 22</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F50" t="n">
-        <v>215</v>
+        <v>2471</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="I50" t="n">
-        <v>215</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>G-CELIA22</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
@@ -1924,14 +1908,14 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1940,40 +1924,36 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>139</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>IT GILLET</t>
-        </is>
-      </c>
+      <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="I52" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1982,14 +1962,14 @@
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1998,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>149</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54">
@@ -2007,23 +1987,23 @@
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55">
@@ -2031,19 +2011,19 @@
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2052,31 +2032,23 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>139</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>IVONNE 2</t>
-        </is>
-      </c>
+      <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>Size: 10</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>169</v>
+        <v>1151</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2085,31 +2057,31 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>169</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>KB 265</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>550</v>
+        <v>139</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2118,37 +2090,37 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>550</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>KB 270</t>
+          <t>IT GILLET</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>895</v>
+        <v>149</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>895</v>
+        <v>149</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2157,30 +2129,26 @@
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
+      <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>895</v>
+        <v>149</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60">
@@ -2189,43 +2157,43 @@
       <c r="C60" s="1" t="n"/>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>895</v>
+        <v>149</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>KB-42</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2234,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>299</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -2242,19 +2210,15 @@
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>Size: 18</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>299</v>
+        <v>586</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2263,60 +2227,64 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>299</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>KB-662</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr"/>
+          <t>IVONNE 2</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>399</v>
+        <v>169</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>KB-686</t>
+          <t>KB 265</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>295</v>
+        <v>550</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2325,136 +2293,116 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>295</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>KB-714</t>
+          <t>KB 270</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>399</v>
+        <v>895</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="I65" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>MAISIE</t>
-        </is>
-      </c>
+      <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>tan</t>
         </is>
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>162</v>
+        <v>895</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="I66" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>MAJESTIC</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>278</v>
+        <v>895</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>139</v>
+        <v>895</v>
       </c>
       <c r="I67" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>MB139</t>
-        </is>
-      </c>
+      <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>Size: 12</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>179</v>
+        <v>2685</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>179</v>
+        <v>2685</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2462,18 +2410,26 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>KB-42</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2482,27 +2438,23 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>179</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
+      <c r="C70" s="1" t="n"/>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2511,31 +2463,23 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>179</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>N-12</t>
-        </is>
-      </c>
+      <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Oxblood</t>
-        </is>
-      </c>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>Size: 16</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>229</v>
+        <v>598</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2544,37 +2488,33 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>229</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>N-21</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+          <t>KB-662</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr"/>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2582,18 +2522,26 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>KB-686</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2602,31 +2550,31 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>150</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>N-31</t>
+          <t>KB-714</t>
         </is>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2635,27 +2583,31 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>199</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>MAISIE</t>
+        </is>
+      </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E75" t="n">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2664,89 +2616,89 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>199</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>MAJESTIC</t>
+        </is>
+      </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Purple</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>MB139</t>
+        </is>
+      </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D77" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="I77" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>NIBI 3</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2755,31 +2707,27 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>PENLOPE</t>
-        </is>
-      </c>
+      <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Burgundy</t>
         </is>
       </c>
       <c r="D79" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2788,56 +2736,56 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="n"/>
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>Size: 20</t>
-        </is>
-      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>139</v>
+        <v>537</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>537</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>RUTH</t>
+          <t>N-12</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
+          <t>Oxblood</t>
         </is>
       </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2846,89 +2794,81 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>TINA</t>
+          <t>N-21</t>
         </is>
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I82" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>WENDY</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
       <c r="D83" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="n"/>
-      <c r="C84" s="1" t="n"/>
-      <c r="D84" s="1" t="inlineStr">
-        <is>
-          <t>Size: 14</t>
-        </is>
-      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr"/>
       <c r="E84" t="n">
         <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2937,57 +2877,53 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>awl-284</t>
+          <t>N-31</t>
         </is>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>Taupe</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D85" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>awl-80</t>
-        </is>
-      </c>
+      <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3008,117 +2944,109 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>awl-blazer</t>
-        </is>
-      </c>
+      <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>bikex</t>
-        </is>
-      </c>
+      <c r="B88" s="1" t="n"/>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="I88" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>diana</t>
-        </is>
-      </c>
+      <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Stone</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>Size: 16</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>149</v>
+        <v>772</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>NIBI 3</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3127,49 +3055,49 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="n"/>
-      <c r="C91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>PENLOPE</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D91" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="inlineStr">
-        <is>
-          <t>jessica</t>
-        </is>
-      </c>
-      <c r="C92" s="1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3179,29 +3107,29 @@
         <v>139</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I92" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="n"/>
-      <c r="C93" s="1" t="n"/>
-      <c r="D93" s="1" t="inlineStr">
-        <is>
-          <t>Size: 16</t>
-        </is>
-      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3210,27 +3138,31 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>RUTH</t>
+        </is>
+      </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Cognac</t>
         </is>
       </c>
       <c r="D94" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3239,31 +3171,31 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>l-nirma</t>
+          <t>TINA</t>
         </is>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D95" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3272,40 +3204,40 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>149</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>licra</t>
+          <t>WENDY</t>
         </is>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D96" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>587</v>
+        <v>115</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>388</v>
+        <v>115</v>
       </c>
       <c r="I96" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3314,14 +3246,14 @@
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3330,81 +3262,89 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>364</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="n"/>
-      <c r="C98" s="1" t="n"/>
-      <c r="D98" s="1" t="inlineStr">
-        <is>
-          <t>Size: 16</t>
-        </is>
-      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>199</v>
+        <v>393</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="n"/>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>awl-284</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>Taupe</t>
+        </is>
+      </c>
       <c r="D99" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="I99" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>nirma</t>
+          <t>awl-80</t>
         </is>
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D100" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3413,85 +3353,97 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>129</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n"/>
-      <c r="C101" s="1" t="n"/>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>awl-blazer</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D101" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="I101" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="inlineStr"/>
-      <c r="C102" s="1" t="inlineStr"/>
-      <c r="D102" s="1" t="inlineStr"/>
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>bikex</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="E102" t="n">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>21291</v>
+        <v>109</v>
       </c>
       <c r="G102" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>8223</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>13067</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Mens &gt; Leather Jackets</t>
-        </is>
-      </c>
+      <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>diana</t>
         </is>
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D103" s="1" t="inlineStr">
         <is>
-          <t>Size: 2XL</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3500,7 +3452,7 @@
         <v>149</v>
       </c>
       <c r="I103" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3509,14 +3461,14 @@
       <c r="C104" s="1" t="n"/>
       <c r="D104" s="1" t="inlineStr">
         <is>
-          <t>Size: 4XL</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3525,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
@@ -3534,20 +3486,20 @@
       <c r="C105" s="1" t="n"/>
       <c r="D105" s="1" t="inlineStr">
         <is>
-          <t>Size: 5XL</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -3556,42 +3508,50 @@
     <row r="106">
       <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="n"/>
-      <c r="C106" s="1" t="n"/>
-      <c r="D106" s="1" t="inlineStr">
-        <is>
-          <t>Size: 6XL</t>
-        </is>
-      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr"/>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>220</v>
+        <v>447</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
-      <c r="B107" s="1" t="n"/>
-      <c r="C107" s="1" t="n"/>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>jessica</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="D107" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3600,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
@@ -3609,14 +3569,14 @@
       <c r="C108" s="1" t="n"/>
       <c r="D108" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>422</v>
+        <v>139</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3625,23 +3585,27 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>422</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="n"/>
-      <c r="C109" s="1" t="n"/>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
       <c r="D109" s="1" t="inlineStr">
         <is>
-          <t>Size: XS</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3650,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
@@ -3658,19 +3622,15 @@
       <c r="B110" s="1" t="n"/>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D110" s="1" t="inlineStr">
-        <is>
-          <t>Size: 2XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr"/>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3679,23 +3639,31 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>298</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
-      <c r="B111" s="1" t="n"/>
-      <c r="C111" s="1" t="n"/>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>l-nirma</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
       <c r="D111" s="1" t="inlineStr">
         <is>
-          <t>Size: 4XL</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3704,32 +3672,40 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="n"/>
-      <c r="C112" s="1" t="n"/>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>licra</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D112" s="1" t="inlineStr">
         <is>
-          <t>Size: 6XL</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E112" t="n">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="I112" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3738,14 +3714,14 @@
       <c r="C113" s="1" t="n"/>
       <c r="D113" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3754,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>273</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114">
@@ -3763,23 +3739,23 @@
       <c r="C114" s="1" t="n"/>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>149</v>
+        <v>587</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="I114" t="n">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115">
@@ -3788,14 +3764,14 @@
       <c r="C115" s="1" t="n"/>
       <c r="D115" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>596</v>
+        <v>364</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3804,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>596</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116">
@@ -3812,53 +3788,57 @@
       <c r="B116" s="1" t="n"/>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
-        </is>
-      </c>
-      <c r="D116" s="1" t="inlineStr">
-        <is>
-          <t>Size: 4XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="inlineStr"/>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>189</v>
+        <v>1349</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="I116" t="n">
-        <v>189</v>
+        <v>762</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="n"/>
-      <c r="C117" s="1" t="n"/>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>nirma</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
       <c r="D117" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
@@ -3867,55 +3847,55 @@
       <c r="C118" s="1" t="n"/>
       <c r="D118" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="n"/>
-      <c r="C119" s="1" t="n"/>
-      <c r="D119" s="1" t="inlineStr">
-        <is>
-          <t>Size: XL</t>
-        </is>
-      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="inlineStr"/>
       <c r="E119" t="n">
         <v>2</v>
       </c>
       <c r="F119" t="n">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>149</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="C120" s="1" t="inlineStr">
@@ -3925,14 +3905,14 @@
       </c>
       <c r="D120" s="1" t="inlineStr">
         <is>
-          <t>Size: 4XL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>149</v>
+        <v>833</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3941,23 +3921,27 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>149</v>
+        <v>833</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="n"/>
-      <c r="C121" s="1" t="n"/>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>318</v>
+        <v>865</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3966,27 +3950,31 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>318</v>
+        <v>865</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
-      <c r="B122" s="1" t="n"/>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>3054</t>
+        </is>
+      </c>
       <c r="C122" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D122" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3995,27 +3983,31 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="n"/>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>G 2131</t>
+        </is>
+      </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Burgundy</t>
         </is>
       </c>
       <c r="D123" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>159</v>
+        <v>679</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4024,31 +4016,27 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>159</v>
+        <v>679</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
-      <c r="B124" s="1" t="inlineStr">
-        <is>
-          <t>2238</t>
-        </is>
-      </c>
+      <c r="B124" s="1" t="n"/>
       <c r="C124" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D124" s="1" t="inlineStr">
         <is>
-          <t>Size: 2XL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>210</v>
+        <v>829</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -4057,23 +4045,27 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>210</v>
+        <v>829</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="n"/>
-      <c r="C125" s="1" t="n"/>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D125" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>609</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4082,27 +4074,31 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>210</v>
+        <v>609</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="n"/>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>G-CELIA22</t>
+        </is>
+      </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>Size: 2XL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>707</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4111,48 +4107,64 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>210</v>
+        <v>707</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="n"/>
-      <c r="C127" s="1" t="n"/>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>IT GILLET</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
       <c r="D127" s="1" t="inlineStr">
         <is>
-          <t>Size: 6XL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>270</v>
+        <v>447</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
-      <c r="B128" s="1" t="n"/>
-      <c r="C128" s="1" t="n"/>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>KB 270</t>
+        </is>
+      </c>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
       <c r="D128" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>210</v>
+        <v>1790</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4161,27 +4173,31 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>210</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="n"/>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>MB139</t>
+        </is>
+      </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D129" s="1" t="inlineStr">
         <is>
-          <t>Size: 5XL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>358</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -4190,47 +4206,47 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>250</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="inlineStr">
         <is>
-          <t>2296</t>
+          <t>N-21</t>
         </is>
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D130" s="1" t="inlineStr">
         <is>
-          <t>Size: XS</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>PENLOPE</t>
         </is>
       </c>
       <c r="C131" s="1" t="inlineStr">
@@ -4240,14 +4256,14 @@
       </c>
       <c r="D131" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4256,27 +4272,31 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>207</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="n"/>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>WENDY</t>
+        </is>
+      </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D132" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4285,27 +4305,31 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>249</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="inlineStr">
         <is>
-          <t>2483</t>
-        </is>
-      </c>
-      <c r="C133" s="1" t="inlineStr"/>
+          <t>diana</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>Stone</t>
+        </is>
+      </c>
       <c r="D133" s="1" t="inlineStr">
         <is>
-          <t>Size: XS</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>179</v>
+        <v>447</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4314,27 +4338,31 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>179</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
-      <c r="B134" s="1" t="n"/>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>jessica</t>
+        </is>
+      </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D134" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -4343,23 +4371,31 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>328</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="n"/>
-      <c r="C135" s="1" t="n"/>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>licra</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D135" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>179</v>
+        <v>1349</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -4368,31 +4404,31 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>179</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>nirma</t>
         </is>
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D136" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4401,65 +4437,69 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>169</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="inlineStr">
-        <is>
-          <t>2599</t>
-        </is>
-      </c>
-      <c r="C137" s="1" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="D137" s="1" t="inlineStr">
-        <is>
-          <t>Size: 4XL</t>
-        </is>
-      </c>
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="inlineStr"/>
+      <c r="C137" s="1" t="inlineStr"/>
+      <c r="D137" s="1" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="F137" t="n">
-        <v>169</v>
+        <v>21291</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>8223</v>
       </c>
       <c r="I137" t="n">
-        <v>169</v>
+        <v>13067</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n"/>
-      <c r="B138" s="1" t="n"/>
-      <c r="C138" s="1" t="n"/>
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>Mens &gt; Leather Jackets</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D138" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I138" t="n">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
@@ -4468,23 +4508,23 @@
       <c r="C139" s="1" t="n"/>
       <c r="D139" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E139" t="n">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140">
@@ -4493,80 +4533,64 @@
       <c r="C140" s="1" t="n"/>
       <c r="D140" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E140" t="n">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="I140" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n"/>
-      <c r="B141" s="1" t="inlineStr">
-        <is>
-          <t>2622</t>
-        </is>
-      </c>
-      <c r="C141" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B141" s="1" t="n"/>
+      <c r="C141" s="1" t="n"/>
       <c r="D141" s="1" t="inlineStr">
         <is>
-          <t>Size: 4XL</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E141" t="n">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I141" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
-      <c r="B142" s="1" t="inlineStr">
-        <is>
-          <t>2655</t>
-        </is>
-      </c>
-      <c r="C142" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="B142" s="1" t="n"/>
+      <c r="C142" s="1" t="n"/>
       <c r="D142" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4575,31 +4599,23 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n"/>
-      <c r="B143" s="1" t="inlineStr">
-        <is>
-          <t>2718</t>
-        </is>
-      </c>
-      <c r="C143" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B143" s="1" t="n"/>
+      <c r="C143" s="1" t="n"/>
       <c r="D143" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>189</v>
+        <v>422</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4608,27 +4624,23 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>189</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
-      <c r="B144" s="1" t="inlineStr">
-        <is>
-          <t>2719</t>
-        </is>
-      </c>
-      <c r="C144" s="1" t="inlineStr"/>
+      <c r="B144" s="1" t="n"/>
+      <c r="C144" s="1" t="n"/>
       <c r="D144" s="1" t="inlineStr">
         <is>
-          <t>Size: 4XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4637,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
@@ -4645,19 +4657,19 @@
       <c r="B145" s="1" t="n"/>
       <c r="C145" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D145" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4666,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>132</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146">
@@ -4675,14 +4687,14 @@
       <c r="C146" s="1" t="n"/>
       <c r="D146" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E146" t="n">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4691,31 +4703,23 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
-      <c r="B147" s="1" t="inlineStr">
-        <is>
-          <t>2834</t>
-        </is>
-      </c>
-      <c r="C147" s="1" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
+      <c r="B147" s="1" t="n"/>
+      <c r="C147" s="1" t="n"/>
       <c r="D147" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E147" t="n">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4724,31 +4728,23 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
-      <c r="B148" s="1" t="inlineStr">
-        <is>
-          <t>5704</t>
-        </is>
-      </c>
-      <c r="C148" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B148" s="1" t="n"/>
+      <c r="C148" s="1" t="n"/>
       <c r="D148" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F148" t="n">
-        <v>225</v>
+        <v>596</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4757,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>225</v>
+        <v>596</v>
       </c>
     </row>
     <row r="149">
@@ -4766,14 +4762,14 @@
       <c r="C149" s="1" t="n"/>
       <c r="D149" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4782,27 +4778,23 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>225</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
       <c r="B150" s="1" t="n"/>
-      <c r="C150" s="1" t="inlineStr">
-        <is>
-          <t>Burgandy</t>
-        </is>
-      </c>
+      <c r="C150" s="1" t="n"/>
       <c r="D150" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E150" t="n">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4811,31 +4803,27 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>225</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
-      <c r="B151" s="1" t="inlineStr">
-        <is>
-          <t>BR FONS-1</t>
-        </is>
-      </c>
+      <c r="B151" s="1" t="n"/>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Timber</t>
         </is>
       </c>
       <c r="D151" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E151" t="n">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4844,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152">
@@ -4853,85 +4841,73 @@
       <c r="C152" s="1" t="n"/>
       <c r="D152" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152" t="n">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I152" t="n">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
       <c r="B153" s="1" t="n"/>
-      <c r="C153" s="1" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
+      <c r="C153" s="1" t="n"/>
       <c r="D153" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" t="n">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I153" t="n">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n"/>
-      <c r="B154" s="1" t="inlineStr">
-        <is>
-          <t>BR ROCK 2</t>
-        </is>
-      </c>
-      <c r="C154" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B154" s="1" t="n"/>
+      <c r="C154" s="1" t="n"/>
       <c r="D154" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E154" t="n">
         <v>2</v>
       </c>
       <c r="F154" t="n">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I154" t="n">
-        <v>498</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155">
@@ -4939,48 +4915,48 @@
       <c r="B155" s="1" t="n"/>
       <c r="C155" s="1" t="inlineStr">
         <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
-      <c r="D155" s="1" t="inlineStr">
-        <is>
-          <t>Size: 6XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D155" s="1" t="inlineStr"/>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F155" t="n">
-        <v>300</v>
+        <v>4378</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="I155" t="n">
-        <v>300</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n"/>
-      <c r="B156" s="1" t="n"/>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D156" s="1" t="inlineStr">
         <is>
-          <t>Size: 3XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E156" t="n">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4989,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>269</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157">
@@ -4998,14 +4974,14 @@
       <c r="C157" s="1" t="n"/>
       <c r="D157" s="1" t="inlineStr">
         <is>
-          <t>Size: 4XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -5014,23 +4990,27 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n"/>
       <c r="B158" s="1" t="n"/>
-      <c r="C158" s="1" t="n"/>
+      <c r="C158" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D158" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E158" t="n">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -5039,16 +5019,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>249</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n"/>
-      <c r="B159" s="1" t="inlineStr">
-        <is>
-          <t>BR-1469</t>
-        </is>
-      </c>
+      <c r="B159" s="1" t="n"/>
       <c r="C159" s="1" t="inlineStr">
         <is>
           <t>Timber</t>
@@ -5056,14 +5032,14 @@
       </c>
       <c r="D159" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E159" t="n">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5072,31 +5048,23 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n"/>
-      <c r="B160" s="1" t="inlineStr">
-        <is>
-          <t>BRAVO</t>
-        </is>
-      </c>
+      <c r="B160" s="1" t="n"/>
       <c r="C160" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D160" s="1" t="inlineStr">
-        <is>
-          <t>Size: XS</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D160" s="1" t="inlineStr"/>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F160" t="n">
-        <v>99</v>
+        <v>785</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -5105,31 +5073,31 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>99</v>
+        <v>785</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
       <c r="B161" s="1" t="inlineStr">
         <is>
-          <t>CARTER</t>
+          <t>2238</t>
         </is>
       </c>
       <c r="C161" s="1" t="inlineStr">
         <is>
-          <t>Rust</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D161" s="1" t="inlineStr">
         <is>
-          <t>Size: 2XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E161" t="n">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -5138,56 +5106,52 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
-      <c r="B162" s="1" t="inlineStr">
-        <is>
-          <t>FO WILLIE</t>
-        </is>
-      </c>
-      <c r="C162" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
       <c r="D162" s="1" t="inlineStr">
         <is>
-          <t>Size: 2XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>418</v>
+        <v>210</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n"/>
       <c r="B163" s="1" t="n"/>
-      <c r="C163" s="1" t="n"/>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D163" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E163" t="n">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5196,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164">
@@ -5205,47 +5169,39 @@
       <c r="C164" s="1" t="n"/>
       <c r="D164" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E164" t="n">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="I164" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
-      <c r="B165" s="1" t="inlineStr">
-        <is>
-          <t>FO-WESLEY</t>
-        </is>
-      </c>
-      <c r="C165" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B165" s="1" t="n"/>
+      <c r="C165" s="1" t="n"/>
       <c r="D165" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E165" t="n">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -5254,31 +5210,27 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>149</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n"/>
-      <c r="B166" s="1" t="inlineStr">
-        <is>
-          <t>FRANCO</t>
-        </is>
-      </c>
+      <c r="B166" s="1" t="n"/>
       <c r="C166" s="1" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Timber</t>
         </is>
       </c>
       <c r="D166" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E166" t="n">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5287,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167">
@@ -5295,19 +5247,15 @@
       <c r="B167" s="1" t="n"/>
       <c r="C167" s="1" t="inlineStr">
         <is>
-          <t>Oxblood</t>
-        </is>
-      </c>
-      <c r="D167" s="1" t="inlineStr">
-        <is>
-          <t>Size: XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D167" s="1" t="inlineStr"/>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F167" t="n">
-        <v>139</v>
+        <v>1360</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -5316,24 +5264,24 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>139</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
       <c r="B168" s="1" t="inlineStr">
         <is>
-          <t>G-6400</t>
+          <t>2296</t>
         </is>
       </c>
       <c r="C168" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Timber</t>
         </is>
       </c>
       <c r="D168" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -5354,18 +5302,26 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
-      <c r="B169" s="1" t="n"/>
-      <c r="C169" s="1" t="n"/>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D169" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E169" t="n">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5374,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170">
@@ -5382,28 +5338,28 @@
       <c r="B170" s="1" t="n"/>
       <c r="C170" s="1" t="inlineStr">
         <is>
-          <t>Burgundy</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D170" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>189</v>
+        <v>249</v>
       </c>
     </row>
     <row r="171">
@@ -5411,19 +5367,15 @@
       <c r="B171" s="1" t="n"/>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D171" s="1" t="inlineStr">
-        <is>
-          <t>Size: XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D171" s="1" t="inlineStr"/>
       <c r="E171" t="n">
         <v>2</v>
       </c>
       <c r="F171" t="n">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -5432,64 +5384,56 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>378</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n"/>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="C172" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+          <t>2483</t>
+        </is>
+      </c>
+      <c r="C172" s="1" t="inlineStr"/>
       <c r="D172" s="1" t="inlineStr">
         <is>
-          <t>Size: 5XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E172" t="n">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>459</v>
+        <v>179</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="inlineStr">
-        <is>
-          <t>JAMES DIN</t>
-        </is>
-      </c>
+      <c r="B173" s="1" t="n"/>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>Denim</t>
+          <t>White</t>
         </is>
       </c>
       <c r="D173" s="1" t="inlineStr">
         <is>
-          <t>Size: 4XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E173" t="n">
         <v>2</v>
       </c>
       <c r="F173" t="n">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -5498,27 +5442,23 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="inlineStr">
-        <is>
-          <t>JOSHUA</t>
-        </is>
-      </c>
-      <c r="C174" s="1" t="inlineStr"/>
+      <c r="B174" s="1" t="n"/>
+      <c r="C174" s="1" t="n"/>
       <c r="D174" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E174" t="n">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -5527,31 +5467,23 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>335</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n"/>
-      <c r="B175" s="1" t="inlineStr">
-        <is>
-          <t>KE 72</t>
-        </is>
-      </c>
+      <c r="B175" s="1" t="n"/>
       <c r="C175" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="D175" s="1" t="inlineStr">
-        <is>
-          <t>Size: L</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D175" s="1" t="inlineStr"/>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F175" t="n">
-        <v>500</v>
+        <v>686</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -5560,27 +5492,31 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>500</v>
+        <v>686</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n"/>
-      <c r="B176" s="1" t="n"/>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>2531</t>
+        </is>
+      </c>
       <c r="C176" s="1" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="D176" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E176" t="n">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>520</v>
+        <v>169</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -5589,31 +5525,31 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>520</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n"/>
       <c r="B177" s="1" t="inlineStr">
         <is>
-          <t>KE 98 DUFFEL</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="C177" s="1" t="inlineStr">
         <is>
-          <t>tobacco</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D177" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>639</v>
+        <v>169</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -5622,93 +5558,73 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>639</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n"/>
-      <c r="B178" s="1" t="inlineStr">
-        <is>
-          <t>KE YELEK 1</t>
-        </is>
-      </c>
-      <c r="C178" s="1" t="inlineStr">
-        <is>
-          <t>Whisky</t>
-        </is>
-      </c>
+      <c r="B178" s="1" t="n"/>
+      <c r="C178" s="1" t="n"/>
       <c r="D178" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I178" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n"/>
-      <c r="B179" s="1" t="inlineStr">
-        <is>
-          <t>KE-117</t>
-        </is>
-      </c>
-      <c r="C179" s="1" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
+      <c r="B179" s="1" t="n"/>
+      <c r="C179" s="1" t="n"/>
       <c r="D179" s="1" t="inlineStr">
         <is>
-          <t>Size: 3XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E179" t="n">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>614</v>
+        <v>169</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n"/>
       <c r="B180" s="1" t="n"/>
-      <c r="C180" s="1" t="inlineStr">
-        <is>
-          <t>Ginger</t>
-        </is>
-      </c>
+      <c r="C180" s="1" t="n"/>
       <c r="D180" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E180" t="n">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>649</v>
+        <v>150</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -5717,31 +5633,23 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>649</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n"/>
-      <c r="B181" s="1" t="inlineStr">
-        <is>
-          <t>LARGO</t>
-        </is>
-      </c>
+      <c r="B181" s="1" t="n"/>
       <c r="C181" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D181" s="1" t="inlineStr">
-        <is>
-          <t>Size: XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D181" s="1" t="inlineStr"/>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F181" t="n">
-        <v>259</v>
+        <v>657</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -5750,85 +5658,97 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>259</v>
+        <v>657</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n"/>
       <c r="B182" s="1" t="inlineStr">
         <is>
-          <t>LENT 2</t>
-        </is>
-      </c>
-      <c r="C182" s="1" t="inlineStr"/>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D182" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E182" t="n">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n"/>
-      <c r="B183" s="1" t="n"/>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>2655</t>
+        </is>
+      </c>
       <c r="C183" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D183" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>350</v>
+        <v>129</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n"/>
       <c r="B184" s="1" t="inlineStr">
         <is>
-          <t>MASSIMO</t>
-        </is>
-      </c>
-      <c r="C184" s="1" t="inlineStr"/>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D184" s="1" t="inlineStr">
         <is>
-          <t>Size: XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5837,27 +5757,31 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>279</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n"/>
-      <c r="B185" s="1" t="n"/>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
+      </c>
       <c r="C185" s="1" t="inlineStr">
         <is>
-          <t>Oxblood</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D185" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E185" t="n">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5866,31 +5790,23 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>233</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n"/>
-      <c r="B186" s="1" t="inlineStr">
-        <is>
-          <t>MASSIMO GILLET 1</t>
-        </is>
-      </c>
-      <c r="C186" s="1" t="inlineStr">
-        <is>
-          <t>Cognac</t>
-        </is>
-      </c>
+      <c r="B186" s="1" t="n"/>
+      <c r="C186" s="1" t="n"/>
       <c r="D186" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E186" t="n">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5899,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187">
@@ -5908,80 +5824,72 @@
       <c r="C187" s="1" t="n"/>
       <c r="D187" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E187" t="n">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n"/>
-      <c r="B188" s="1" t="inlineStr">
-        <is>
-          <t>MAXSON</t>
-        </is>
-      </c>
+      <c r="B188" s="1" t="n"/>
       <c r="C188" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D188" s="1" t="inlineStr">
-        <is>
-          <t>Size: 5XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D188" s="1" t="inlineStr"/>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F188" t="n">
-        <v>189</v>
+        <v>471</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n"/>
       <c r="B189" s="1" t="inlineStr">
         <is>
-          <t>MINK</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="C189" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="D189" s="1" t="inlineStr">
         <is>
-          <t>Size: 4XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E189" t="n">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>415</v>
+        <v>140</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5990,56 +5898,56 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>415</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n"/>
-      <c r="B190" s="1" t="n"/>
-      <c r="C190" s="1" t="n"/>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>5704</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D190" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E190" t="n">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n"/>
-      <c r="B191" s="1" t="inlineStr">
-        <is>
-          <t>ML2-BLAZER</t>
-        </is>
-      </c>
-      <c r="C191" s="1" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
+      <c r="B191" s="1" t="n"/>
+      <c r="C191" s="1" t="n"/>
       <c r="D191" s="1" t="inlineStr">
         <is>
-          <t>Size: 5XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E191" t="n">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -6048,31 +5956,27 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n"/>
-      <c r="B192" s="1" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
-      </c>
+      <c r="B192" s="1" t="n"/>
       <c r="C192" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Burgandy</t>
         </is>
       </c>
       <c r="D192" s="1" t="inlineStr">
         <is>
-          <t>Size: 5XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E192" t="n">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -6081,27 +5985,23 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n"/>
-      <c r="B193" s="1" t="inlineStr">
-        <is>
-          <t>PILOT</t>
-        </is>
-      </c>
-      <c r="C193" s="1" t="inlineStr"/>
-      <c r="D193" s="1" t="inlineStr">
-        <is>
-          <t>Size: 3XL</t>
-        </is>
-      </c>
+      <c r="B193" s="1" t="n"/>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D193" s="1" t="inlineStr"/>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F193" t="n">
-        <v>159</v>
+        <v>675</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -6110,31 +6010,31 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>159</v>
+        <v>675</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n"/>
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>RAYAN</t>
+          <t>BR FONS-1</t>
         </is>
       </c>
       <c r="C194" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D194" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E194" t="n">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -6143,31 +6043,23 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n"/>
-      <c r="B195" s="1" t="inlineStr">
-        <is>
-          <t>SATIN BACK W/COAT</t>
-        </is>
-      </c>
-      <c r="C195" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B195" s="1" t="n"/>
+      <c r="C195" s="1" t="n"/>
       <c r="D195" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -6176,31 +6068,27 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n"/>
-      <c r="B196" s="1" t="inlineStr">
-        <is>
-          <t>TRAP-RYAN</t>
-        </is>
-      </c>
+      <c r="B196" s="1" t="n"/>
       <c r="C196" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="D196" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E196" t="n">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -6209,31 +6097,23 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>360</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n"/>
-      <c r="B197" s="1" t="inlineStr">
-        <is>
-          <t>amj-5</t>
-        </is>
-      </c>
+      <c r="B197" s="1" t="n"/>
       <c r="C197" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
-        </is>
-      </c>
-      <c r="D197" s="1" t="inlineStr">
-        <is>
-          <t>Size: 2XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D197" s="1" t="inlineStr"/>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F197" t="n">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -6242,14 +6122,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>498</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n"/>
       <c r="B198" s="1" t="inlineStr">
         <is>
-          <t>awl-103</t>
+          <t>BR ROCK 2</t>
         </is>
       </c>
       <c r="C198" s="1" t="inlineStr">
@@ -6259,14 +6139,14 @@
       </c>
       <c r="D198" s="1" t="inlineStr">
         <is>
-          <t>Size: 2XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>249</v>
+        <v>498</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -6275,64 +6155,56 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>249</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n"/>
-      <c r="B199" s="1" t="inlineStr">
-        <is>
-          <t>harley</t>
-        </is>
-      </c>
+      <c r="B199" s="1" t="n"/>
       <c r="C199" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
+          <t>Burgundy</t>
         </is>
       </c>
       <c r="D199" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E199" t="n">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n"/>
-      <c r="B200" s="1" t="inlineStr">
-        <is>
-          <t>m-jayden</t>
-        </is>
-      </c>
+      <c r="B200" s="1" t="n"/>
       <c r="C200" s="1" t="inlineStr">
         <is>
-          <t>Olive</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D200" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E200" t="n">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -6341,64 +6213,48 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>99</v>
+        <v>289</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n"/>
-      <c r="B201" s="1" t="inlineStr">
-        <is>
-          <t>m2-edward</t>
-        </is>
-      </c>
-      <c r="C201" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
+      <c r="B201" s="1" t="n"/>
+      <c r="C201" s="1" t="n"/>
       <c r="D201" s="1" t="inlineStr">
         <is>
-          <t>Size: 2XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E201" t="n">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n"/>
-      <c r="B202" s="1" t="inlineStr">
-        <is>
-          <t>mcqeen jacket</t>
-        </is>
-      </c>
-      <c r="C202" s="1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+      <c r="B202" s="1" t="n"/>
+      <c r="C202" s="1" t="n"/>
       <c r="D202" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E202" t="n">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -6407,31 +6263,23 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n"/>
-      <c r="B203" s="1" t="inlineStr">
-        <is>
-          <t>regal</t>
-        </is>
-      </c>
+      <c r="B203" s="1" t="n"/>
       <c r="C203" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D203" s="1" t="inlineStr">
-        <is>
-          <t>Size: XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D203" s="1" t="inlineStr"/>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F203" t="n">
-        <v>149</v>
+        <v>1605</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -6440,27 +6288,31 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>149</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
       <c r="B204" s="1" t="inlineStr">
         <is>
-          <t>severin</t>
-        </is>
-      </c>
-      <c r="C204" s="1" t="inlineStr"/>
+          <t>BR-1469</t>
+        </is>
+      </c>
+      <c r="C204" s="1" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
       <c r="D204" s="1" t="inlineStr">
         <is>
-          <t>Size: S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E204" t="n">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -6469,27 +6321,31 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>279</v>
+        <v>169</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n"/>
-      <c r="B205" s="1" t="n"/>
+      <c r="B205" s="1" t="inlineStr">
+        <is>
+          <t>BRAVO</t>
+        </is>
+      </c>
       <c r="C205" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D205" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E205" t="n">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -6498,31 +6354,31 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>279</v>
+        <v>99</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n"/>
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>stefan biker</t>
+          <t>CARTER</t>
         </is>
       </c>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Rust</t>
         </is>
       </c>
       <c r="D206" s="1" t="inlineStr">
         <is>
-          <t>Size: L</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E206" t="n">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -6531,14 +6387,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n"/>
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>super bomber</t>
+          <t>FO WILLIE</t>
         </is>
       </c>
       <c r="C207" s="1" t="inlineStr">
@@ -6548,23 +6404,23 @@
       </c>
       <c r="D207" s="1" t="inlineStr">
         <is>
-          <t>Size: 2XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F207" t="n">
-        <v>165</v>
+        <v>418</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I207" t="n">
-        <v>165</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208">
@@ -6573,14 +6429,14 @@
       <c r="C208" s="1" t="n"/>
       <c r="D208" s="1" t="inlineStr">
         <is>
-          <t>Size: M</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E208" t="n">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -6589,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209">
@@ -6598,14 +6454,14 @@
       <c r="C209" s="1" t="n"/>
       <c r="D209" s="1" t="inlineStr">
         <is>
-          <t>Size: XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>398</v>
+        <v>189</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -6614,111 +6470,1783 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>398</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="inlineStr">
+      <c r="A210" s="1" t="n"/>
+      <c r="B210" s="1" t="n"/>
+      <c r="C210" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B210" s="1" t="inlineStr"/>
-      <c r="C210" s="1" t="inlineStr"/>
       <c r="D210" s="1" t="inlineStr"/>
       <c r="E210" t="n">
+        <v>4</v>
+      </c>
+      <c r="F210" t="n">
+        <v>796</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t>FO-WESLEY</t>
+        </is>
+      </c>
+      <c r="C211" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D211" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>149</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n"/>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>FRANCO</t>
+        </is>
+      </c>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D212" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>139</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n"/>
+      <c r="B213" s="1" t="n"/>
+      <c r="C213" s="1" t="inlineStr">
+        <is>
+          <t>Oxblood</t>
+        </is>
+      </c>
+      <c r="D213" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>139</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n"/>
+      <c r="B214" s="1" t="n"/>
+      <c r="C214" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D214" s="1" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>278</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n"/>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>G-6400</t>
+        </is>
+      </c>
+      <c r="C215" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D215" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>189</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n"/>
+      <c r="B216" s="1" t="n"/>
+      <c r="C216" s="1" t="n"/>
+      <c r="D216" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>189</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="n">
+        <v>189</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n"/>
+      <c r="B217" s="1" t="n"/>
+      <c r="C217" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D217" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>378</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n"/>
+      <c r="B218" s="1" t="n"/>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>Burgundy</t>
+        </is>
+      </c>
+      <c r="D218" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>378</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>189</v>
+      </c>
+      <c r="I218" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n"/>
+      <c r="B219" s="1" t="n"/>
+      <c r="C219" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D219" s="1" t="inlineStr"/>
+      <c r="E219" t="n">
+        <v>6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1134</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2</v>
+      </c>
+      <c r="H219" t="n">
+        <v>378</v>
+      </c>
+      <c r="I219" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n"/>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="C220" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D220" s="1" t="inlineStr">
+        <is>
+          <t>5XL</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>459</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>459</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n"/>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>JAMES DIN</t>
+        </is>
+      </c>
+      <c r="C221" s="1" t="inlineStr">
+        <is>
+          <t>Denim</t>
+        </is>
+      </c>
+      <c r="D221" s="1" t="inlineStr">
+        <is>
+          <t>4XL</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>318</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n"/>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t>JOSHUA</t>
+        </is>
+      </c>
+      <c r="C222" s="1" t="inlineStr"/>
+      <c r="D222" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>335</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n"/>
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>KE 72</t>
+        </is>
+      </c>
+      <c r="C223" s="1" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D223" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>500</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n"/>
+      <c r="B224" s="1" t="n"/>
+      <c r="C224" s="1" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="D224" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>520</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n"/>
+      <c r="B225" s="1" t="n"/>
+      <c r="C225" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D225" s="1" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n"/>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>KE 98 DUFFEL</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="inlineStr">
+        <is>
+          <t>tobacco</t>
+        </is>
+      </c>
+      <c r="D226" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>639</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n"/>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>KE YELEK 1</t>
+        </is>
+      </c>
+      <c r="C227" s="1" t="inlineStr">
+        <is>
+          <t>Whisky</t>
+        </is>
+      </c>
+      <c r="D227" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>275</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n"/>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>KE-117</t>
+        </is>
+      </c>
+      <c r="C228" s="1" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D228" s="1" t="inlineStr">
+        <is>
+          <t>3XL</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>614</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>614</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n"/>
+      <c r="B229" s="1" t="n"/>
+      <c r="C229" s="1" t="inlineStr">
+        <is>
+          <t>Ginger</t>
+        </is>
+      </c>
+      <c r="D229" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>649</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="n"/>
+      <c r="C230" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D230" s="1" t="inlineStr"/>
+      <c r="E230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1263</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n"/>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>LARGO</t>
+        </is>
+      </c>
+      <c r="C231" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D231" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>259</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n"/>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>LENT 2</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D232" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" t="n">
+        <v>350</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>175</v>
+      </c>
+      <c r="I232" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n"/>
+      <c r="B233" s="1" t="n"/>
+      <c r="C233" s="1" t="n"/>
+      <c r="D233" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>210</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="n">
+        <v>210</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n"/>
+      <c r="B234" s="1" t="n"/>
+      <c r="C234" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D234" s="1" t="inlineStr"/>
+      <c r="E234" t="n">
+        <v>3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>560</v>
+      </c>
+      <c r="G234" t="n">
+        <v>2</v>
+      </c>
+      <c r="H234" t="n">
+        <v>385</v>
+      </c>
+      <c r="I234" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n"/>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="inlineStr"/>
+      <c r="D235" s="1" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>279</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n"/>
+      <c r="B236" s="1" t="n"/>
+      <c r="C236" s="1" t="inlineStr">
+        <is>
+          <t>Oxblood</t>
+        </is>
+      </c>
+      <c r="D236" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>233</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n"/>
+      <c r="B237" s="1" t="n"/>
+      <c r="C237" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D237" s="1" t="inlineStr"/>
+      <c r="E237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>513</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n"/>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t>MASSIMO GILLET 1</t>
+        </is>
+      </c>
+      <c r="C238" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
+      <c r="D238" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>124</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>124</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n"/>
+      <c r="B239" s="1" t="n"/>
+      <c r="C239" s="1" t="n"/>
+      <c r="D239" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>124</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n"/>
+      <c r="B240" s="1" t="n"/>
+      <c r="C240" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D240" s="1" t="inlineStr"/>
+      <c r="E240" t="n">
+        <v>2</v>
+      </c>
+      <c r="F240" t="n">
+        <v>248</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n"/>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>MAXSON</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D241" s="1" t="inlineStr">
+        <is>
+          <t>5XL</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>189</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="n">
+        <v>189</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n"/>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>MINK</t>
+        </is>
+      </c>
+      <c r="C242" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D242" s="1" t="inlineStr">
+        <is>
+          <t>4XL</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>415</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n"/>
+      <c r="B243" s="1" t="n"/>
+      <c r="C243" s="1" t="n"/>
+      <c r="D243" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>375</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="n">
+        <v>375</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n"/>
+      <c r="B244" s="1" t="n"/>
+      <c r="C244" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D244" s="1" t="inlineStr"/>
+      <c r="E244" t="n">
+        <v>2</v>
+      </c>
+      <c r="F244" t="n">
+        <v>790</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n"/>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>ML2-BLAZER</t>
+        </is>
+      </c>
+      <c r="C245" s="1" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="D245" s="1" t="inlineStr">
+        <is>
+          <t>5XL</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>209</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n"/>
+      <c r="B246" s="1" t="inlineStr">
+        <is>
+          <t>NAG</t>
+        </is>
+      </c>
+      <c r="C246" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D246" s="1" t="inlineStr">
+        <is>
+          <t>5XL</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>189</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n"/>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>PILOT</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="inlineStr"/>
+      <c r="D247" s="1" t="inlineStr">
+        <is>
+          <t>3XL</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>159</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n"/>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>RAYAN</t>
+        </is>
+      </c>
+      <c r="C248" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D248" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>139</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n"/>
+      <c r="B249" s="1" t="inlineStr">
+        <is>
+          <t>SATIN BACK W/COAT</t>
+        </is>
+      </c>
+      <c r="C249" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D249" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>59</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n"/>
+      <c r="B250" s="1" t="inlineStr">
+        <is>
+          <t>TRAP-RYAN</t>
+        </is>
+      </c>
+      <c r="C250" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
+      <c r="D250" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>360</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n"/>
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>amj-5</t>
+        </is>
+      </c>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
+      <c r="D251" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>498</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="inlineStr">
+        <is>
+          <t>awl-103</t>
+        </is>
+      </c>
+      <c r="C252" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D252" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>249</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n"/>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>harley</t>
+        </is>
+      </c>
+      <c r="C253" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
+      <c r="D253" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>149</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>149</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>m-jayden</t>
+        </is>
+      </c>
+      <c r="C254" s="1" t="inlineStr">
+        <is>
+          <t>Olive</t>
+        </is>
+      </c>
+      <c r="D254" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>99</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>m2-edward</t>
+        </is>
+      </c>
+      <c r="C255" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D255" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
         <v>129</v>
       </c>
-      <c r="F210" t="n">
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+      <c r="H255" t="n">
+        <v>129</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>mcqeen jacket</t>
+        </is>
+      </c>
+      <c r="C256" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D256" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>249</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n"/>
+      <c r="B257" s="1" t="inlineStr">
+        <is>
+          <t>regal</t>
+        </is>
+      </c>
+      <c r="C257" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D257" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>149</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n"/>
+      <c r="B258" s="1" t="inlineStr">
+        <is>
+          <t>severin</t>
+        </is>
+      </c>
+      <c r="C258" s="1" t="inlineStr"/>
+      <c r="D258" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>279</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n"/>
+      <c r="B259" s="1" t="n"/>
+      <c r="C259" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D259" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>279</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n"/>
+      <c r="B260" s="1" t="n"/>
+      <c r="C260" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D260" s="1" t="inlineStr"/>
+      <c r="E260" t="n">
+        <v>2</v>
+      </c>
+      <c r="F260" t="n">
+        <v>558</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n"/>
+      <c r="B261" s="1" t="inlineStr">
+        <is>
+          <t>stefan biker</t>
+        </is>
+      </c>
+      <c r="C261" s="1" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D261" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>165</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n"/>
+      <c r="B262" s="1" t="inlineStr">
+        <is>
+          <t>super bomber</t>
+        </is>
+      </c>
+      <c r="C262" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D262" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>165</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n"/>
+      <c r="B263" s="1" t="n"/>
+      <c r="C263" s="1" t="n"/>
+      <c r="D263" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>199</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n"/>
+      <c r="B264" s="1" t="n"/>
+      <c r="C264" s="1" t="n"/>
+      <c r="D264" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>2</v>
+      </c>
+      <c r="F264" t="n">
+        <v>398</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n"/>
+      <c r="B265" s="1" t="n"/>
+      <c r="C265" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D265" s="1" t="inlineStr"/>
+      <c r="E265" t="n">
+        <v>4</v>
+      </c>
+      <c r="F265" t="n">
+        <v>762</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="inlineStr"/>
+      <c r="C266" s="1" t="inlineStr"/>
+      <c r="D266" s="1" t="inlineStr"/>
+      <c r="E266" t="n">
+        <v>129</v>
+      </c>
+      <c r="F266" t="n">
         <v>26569</v>
       </c>
-      <c r="G210" t="n">
+      <c r="G266" t="n">
         <v>21</v>
       </c>
-      <c r="H210" t="n">
+      <c r="H266" t="n">
         <v>4655</v>
       </c>
-      <c r="I210" t="n">
+      <c r="I266" t="n">
         <v>21914</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A2:A101"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B30:B45"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A103:A209"/>
-    <mergeCell ref="B154:B158"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C110:C115"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B103:B119"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="79">
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="A138:A265"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B138:B155"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A2:A136"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B223:B225"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="B238:B240"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B34:B50"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C138:C144"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B65:B68"/>
     <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C103:C109"/>
-    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="B100:B101"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Leather Company - Feb 2024 - Leather Jackets.xlsx
+++ b/Leather Company - Feb 2024 - Leather Jackets.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I266"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3892,89 +3892,81 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="inlineStr">
-        <is>
-          <t>2810</t>
-        </is>
-      </c>
-      <c r="C120" s="1" t="inlineStr">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr"/>
+      <c r="C120" s="1" t="inlineStr"/>
+      <c r="D120" s="1" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>136</v>
+      </c>
+      <c r="F120" t="n">
+        <v>21291</v>
+      </c>
+      <c r="G120" t="n">
+        <v>41</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8223</v>
+      </c>
+      <c r="I120" t="n">
+        <v>13067</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Mens &gt; Leather Jackets</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>833</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n"/>
-      <c r="B121" s="1" t="n"/>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>865</v>
+        <v>273</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I121" t="n">
-        <v>865</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
-      <c r="B122" s="1" t="inlineStr">
-        <is>
-          <t>3054</t>
-        </is>
-      </c>
-      <c r="C122" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
       <c r="D122" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3983,89 +3975,73 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>258</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="inlineStr">
-        <is>
-          <t>G 2131</t>
-        </is>
-      </c>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
       <c r="D123" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>679</v>
+        <v>199</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="I123" t="n">
-        <v>679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="n"/>
-      <c r="C124" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
+      <c r="C124" s="1" t="n"/>
       <c r="D124" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>829</v>
+        <v>220</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I124" t="n">
-        <v>829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="n"/>
-      <c r="C125" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C125" s="1" t="n"/>
       <c r="D125" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>609</v>
+        <v>149</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4074,31 +4050,23 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>609</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="inlineStr">
-        <is>
-          <t>G-CELIA22</t>
-        </is>
-      </c>
-      <c r="C126" s="1" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>707</v>
+        <v>422</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4107,31 +4075,23 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>707</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="inlineStr">
-        <is>
-          <t>IT GILLET</t>
-        </is>
-      </c>
-      <c r="C127" s="1" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
+      <c r="B127" s="1" t="n"/>
+      <c r="C127" s="1" t="n"/>
       <c r="D127" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>447</v>
+        <v>149</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -4140,31 +4100,27 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>447</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
-      <c r="B128" s="1" t="inlineStr">
-        <is>
-          <t>KB 270</t>
-        </is>
-      </c>
+      <c r="B128" s="1" t="n"/>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D128" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>1790</v>
+        <v>298</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4173,31 +4129,23 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1790</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="inlineStr">
-        <is>
-          <t>MB139</t>
-        </is>
-      </c>
-      <c r="C129" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="n"/>
       <c r="D129" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>358</v>
+        <v>189</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -4206,31 +4154,23 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>358</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
-      <c r="B130" s="1" t="inlineStr">
-        <is>
-          <t>N-21</t>
-        </is>
-      </c>
-      <c r="C130" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
       <c r="D130" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -4239,31 +4179,23 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>309</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
-      <c r="B131" s="1" t="inlineStr">
-        <is>
-          <t>PENLOPE</t>
-        </is>
-      </c>
-      <c r="C131" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="n"/>
       <c r="D131" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F131" t="n">
-        <v>278</v>
+        <v>596</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4272,31 +4204,23 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>278</v>
+        <v>596</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="inlineStr">
-        <is>
-          <t>WENDY</t>
-        </is>
-      </c>
-      <c r="C132" s="1" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="1" t="n"/>
       <c r="D132" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132" t="n">
-        <v>393</v>
+        <v>273</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4305,31 +4229,23 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>393</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
-      <c r="B133" s="1" t="inlineStr">
-        <is>
-          <t>diana</t>
-        </is>
-      </c>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <t>Stone</t>
-        </is>
-      </c>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="1" t="n"/>
       <c r="D133" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>447</v>
+        <v>149</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4338,31 +4254,27 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>447</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
-      <c r="B134" s="1" t="inlineStr">
-        <is>
-          <t>jessica</t>
-        </is>
-      </c>
+      <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Timber</t>
         </is>
       </c>
       <c r="D134" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -4371,141 +4283,121 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>278</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="inlineStr">
-        <is>
-          <t>licra</t>
-        </is>
-      </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="1" t="n"/>
       <c r="D135" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F135" t="n">
-        <v>1349</v>
+        <v>298</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I135" t="n">
-        <v>1349</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <t>nirma</t>
-        </is>
-      </c>
-      <c r="C136" s="1" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="1" t="n"/>
       <c r="D136" s="1" t="inlineStr">
         <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>298</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>149</v>
+      </c>
+      <c r="I136" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="n"/>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>298</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>149</v>
+      </c>
+      <c r="I137" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>258</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="inlineStr"/>
-      <c r="C137" s="1" t="inlineStr"/>
-      <c r="D137" s="1" t="inlineStr"/>
-      <c r="E137" t="n">
-        <v>136</v>
-      </c>
-      <c r="F137" t="n">
-        <v>21291</v>
-      </c>
-      <c r="G137" t="n">
-        <v>41</v>
-      </c>
-      <c r="H137" t="n">
-        <v>8223</v>
-      </c>
-      <c r="I137" t="n">
-        <v>13067</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>Mens &gt; Leather Jackets</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="inlineStr">
-        <is>
-          <t>1895</t>
-        </is>
-      </c>
-      <c r="C138" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D138" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
+      <c r="D138" s="1" t="inlineStr"/>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F138" t="n">
-        <v>273</v>
+        <v>4378</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H138" t="n">
-        <v>149</v>
+        <v>1015</v>
       </c>
       <c r="I138" t="n">
-        <v>124</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n"/>
-      <c r="B139" s="1" t="n"/>
-      <c r="C139" s="1" t="n"/>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D139" s="1" t="inlineStr">
         <is>
           <t>4XL</t>
@@ -4515,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -4524,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
@@ -4533,64 +4425,72 @@
       <c r="C140" s="1" t="n"/>
       <c r="D140" s="1" t="inlineStr">
         <is>
-          <t>5XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n"/>
       <c r="B141" s="1" t="n"/>
-      <c r="C141" s="1" t="n"/>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D141" s="1" t="inlineStr">
         <is>
-          <t>6XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E141" t="n">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
       <c r="B142" s="1" t="n"/>
-      <c r="C142" s="1" t="n"/>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
       <c r="D142" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4599,23 +4499,23 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n"/>
       <c r="B143" s="1" t="n"/>
-      <c r="C143" s="1" t="n"/>
-      <c r="D143" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D143" s="1" t="inlineStr"/>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>422</v>
+        <v>785</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4624,23 +4524,31 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>422</v>
+        <v>785</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
-      <c r="B144" s="1" t="n"/>
-      <c r="C144" s="1" t="n"/>
+      <c r="B144" s="1" t="inlineStr">
+        <is>
+          <t>2238</t>
+        </is>
+      </c>
+      <c r="C144" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D144" s="1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4649,27 +4557,23 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>149</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n"/>
       <c r="B145" s="1" t="n"/>
-      <c r="C145" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C145" s="1" t="n"/>
       <c r="D145" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4678,23 +4582,27 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>298</v>
+        <v>210</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n"/>
       <c r="B146" s="1" t="n"/>
-      <c r="C146" s="1" t="n"/>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D146" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E146" t="n">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4703,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147">
@@ -4719,16 +4627,16 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="I147" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4741,10 +4649,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>596</v>
+        <v>210</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4753,23 +4661,27 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>596</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n"/>
       <c r="B149" s="1" t="n"/>
-      <c r="C149" s="1" t="n"/>
+      <c r="C149" s="1" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
       <c r="D149" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4778,23 +4690,23 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
       <c r="B150" s="1" t="n"/>
-      <c r="C150" s="1" t="n"/>
-      <c r="D150" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+      <c r="C150" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D150" s="1" t="inlineStr"/>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F150" t="n">
-        <v>149</v>
+        <v>1360</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4803,12 +4715,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>149</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
-      <c r="B151" s="1" t="n"/>
+      <c r="B151" s="1" t="inlineStr">
+        <is>
+          <t>2296</t>
+        </is>
+      </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
           <t>Timber</t>
@@ -4816,7 +4732,7 @@
       </c>
       <c r="D151" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4826,137 +4742,149 @@
         <v>189</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I151" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="n"/>
-      <c r="C152" s="1" t="n"/>
+      <c r="B152" s="1" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D152" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>149</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
       <c r="B153" s="1" t="n"/>
-      <c r="C153" s="1" t="n"/>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D153" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>149</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n"/>
       <c r="B154" s="1" t="n"/>
-      <c r="C154" s="1" t="n"/>
-      <c r="D154" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D154" s="1" t="inlineStr"/>
       <c r="E154" t="n">
         <v>2</v>
       </c>
       <c r="F154" t="n">
-        <v>298</v>
+        <v>456</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>149</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="n"/>
-      <c r="C155" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D155" s="1" t="inlineStr"/>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>2483</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr"/>
+      <c r="D155" s="1" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
       <c r="E155" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>4378</v>
+        <v>179</v>
       </c>
       <c r="G155" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>3363</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n"/>
-      <c r="B156" s="1" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
-      </c>
+      <c r="B156" s="1" t="n"/>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
       <c r="D156" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F156" t="n">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4965,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>149</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157">
@@ -4974,14 +4902,14 @@
       <c r="C157" s="1" t="n"/>
       <c r="D157" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4990,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>318</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158">
@@ -4998,19 +4926,15 @@
       <c r="B158" s="1" t="n"/>
       <c r="C158" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D158" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D158" s="1" t="inlineStr"/>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F158" t="n">
-        <v>159</v>
+        <v>686</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -5019,27 +4943,31 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>159</v>
+        <v>686</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n"/>
-      <c r="B159" s="1" t="n"/>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>2531</t>
+        </is>
+      </c>
       <c r="C159" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="D159" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E159" t="n">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5048,23 +4976,31 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n"/>
-      <c r="B160" s="1" t="n"/>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>2599</t>
+        </is>
+      </c>
       <c r="C160" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D160" s="1" t="inlineStr"/>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="D160" s="1" t="inlineStr">
+        <is>
+          <t>4XL</t>
+        </is>
+      </c>
       <c r="E160" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>785</v>
+        <v>169</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -5073,40 +5009,32 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>785</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="inlineStr">
-        <is>
-          <t>2238</t>
-        </is>
-      </c>
-      <c r="C161" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
       <c r="D161" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E161" t="n">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I161" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -5115,14 +5043,14 @@
       <c r="C162" s="1" t="n"/>
       <c r="D162" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E162" t="n">
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -5131,27 +5059,23 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n"/>
       <c r="B163" s="1" t="n"/>
-      <c r="C163" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C163" s="1" t="n"/>
       <c r="D163" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E163" t="n">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5160,48 +5084,56 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n"/>
       <c r="B164" s="1" t="n"/>
-      <c r="C164" s="1" t="n"/>
-      <c r="D164" s="1" t="inlineStr">
-        <is>
-          <t>6XL</t>
-        </is>
-      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D164" s="1" t="inlineStr"/>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F164" t="n">
-        <v>270</v>
+        <v>657</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
-      <c r="B165" s="1" t="n"/>
-      <c r="C165" s="1" t="n"/>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D165" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E165" t="n">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -5210,27 +5142,31 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n"/>
-      <c r="B166" s="1" t="n"/>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>2655</t>
+        </is>
+      </c>
       <c r="C166" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D166" s="1" t="inlineStr">
         <is>
-          <t>5XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E166" t="n">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5239,23 +5175,31 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>250</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n"/>
-      <c r="B167" s="1" t="n"/>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
       <c r="C167" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D167" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D167" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="E167" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>1360</v>
+        <v>189</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -5264,64 +5208,56 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1360</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
       <c r="B168" s="1" t="inlineStr">
         <is>
-          <t>2296</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="C168" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D168" s="1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E168" t="n">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
-      <c r="B169" s="1" t="inlineStr">
-        <is>
-          <t>2436</t>
-        </is>
-      </c>
-      <c r="C169" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B169" s="1" t="n"/>
+      <c r="C169" s="1" t="n"/>
       <c r="D169" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E169" t="n">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5330,27 +5266,23 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>207</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n"/>
       <c r="B170" s="1" t="n"/>
-      <c r="C170" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C170" s="1" t="n"/>
       <c r="D170" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E170" t="n">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5359,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>249</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171">
@@ -5372,10 +5304,10 @@
       </c>
       <c r="D171" s="1" t="inlineStr"/>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F171" t="n">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -5384,27 +5316,31 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n"/>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>2483</t>
-        </is>
-      </c>
-      <c r="C172" s="1" t="inlineStr"/>
+          <t>2834</t>
+        </is>
+      </c>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="D172" s="1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E172" t="n">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -5413,27 +5349,31 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n"/>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>5704</t>
+        </is>
+      </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D173" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -5442,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>328</v>
+        <v>225</v>
       </c>
     </row>
     <row r="174">
@@ -5451,14 +5391,14 @@
       <c r="C174" s="1" t="n"/>
       <c r="D174" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E174" t="n">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -5467,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>179</v>
+        <v>225</v>
       </c>
     </row>
     <row r="175">
@@ -5475,15 +5415,19 @@
       <c r="B175" s="1" t="n"/>
       <c r="C175" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D175" s="1" t="inlineStr"/>
+          <t>Burgandy</t>
+        </is>
+      </c>
+      <c r="D175" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>686</v>
+        <v>225</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -5492,31 +5436,23 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>686</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n"/>
-      <c r="B176" s="1" t="inlineStr">
-        <is>
-          <t>2531</t>
-        </is>
-      </c>
+      <c r="B176" s="1" t="n"/>
       <c r="C176" s="1" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
-        </is>
-      </c>
-      <c r="D176" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D176" s="1" t="inlineStr"/>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F176" t="n">
-        <v>169</v>
+        <v>675</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -5525,31 +5461,31 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>169</v>
+        <v>675</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n"/>
       <c r="B177" s="1" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>BR FONS-1</t>
         </is>
       </c>
       <c r="C177" s="1" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D177" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -5558,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178">
@@ -5567,29 +5503,33 @@
       <c r="C178" s="1" t="n"/>
       <c r="D178" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n"/>
       <c r="B179" s="1" t="n"/>
-      <c r="C179" s="1" t="n"/>
+      <c r="C179" s="1" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
       <c r="D179" s="1" t="inlineStr">
         <is>
           <t>XL</t>
@@ -5599,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -5608,23 +5548,23 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n"/>
       <c r="B180" s="1" t="n"/>
-      <c r="C180" s="1" t="n"/>
-      <c r="D180" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+      <c r="C180" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D180" s="1" t="inlineStr"/>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F180" t="n">
-        <v>150</v>
+        <v>535</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -5633,23 +5573,31 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>150</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n"/>
-      <c r="B181" s="1" t="n"/>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>BR ROCK 2</t>
+        </is>
+      </c>
       <c r="C181" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D181" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D181" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F181" t="n">
-        <v>657</v>
+        <v>498</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -5658,24 +5606,20 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>657</v>
+        <v>498</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n"/>
-      <c r="B182" s="1" t="inlineStr">
-        <is>
-          <t>2622</t>
-        </is>
-      </c>
+      <c r="B182" s="1" t="n"/>
       <c r="C182" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Burgundy</t>
         </is>
       </c>
       <c r="D182" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -5696,26 +5640,22 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n"/>
-      <c r="B183" s="1" t="inlineStr">
-        <is>
-          <t>2655</t>
-        </is>
-      </c>
+      <c r="B183" s="1" t="n"/>
       <c r="C183" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D183" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E183" t="n">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5724,31 +5664,23 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>129</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n"/>
-      <c r="B184" s="1" t="inlineStr">
-        <is>
-          <t>2718</t>
-        </is>
-      </c>
-      <c r="C184" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B184" s="1" t="n"/>
+      <c r="C184" s="1" t="n"/>
       <c r="D184" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5757,31 +5689,23 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>189</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n"/>
-      <c r="B185" s="1" t="inlineStr">
-        <is>
-          <t>2719</t>
-        </is>
-      </c>
-      <c r="C185" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B185" s="1" t="n"/>
+      <c r="C185" s="1" t="n"/>
       <c r="D185" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E185" t="n">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5790,23 +5714,23 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>159</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n"/>
       <c r="B186" s="1" t="n"/>
-      <c r="C186" s="1" t="n"/>
-      <c r="D186" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+      <c r="C186" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D186" s="1" t="inlineStr"/>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F186" t="n">
-        <v>132</v>
+        <v>1605</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5815,23 +5739,31 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>132</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n"/>
-      <c r="B187" s="1" t="n"/>
-      <c r="C187" s="1" t="n"/>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>BR-1469</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
       <c r="D187" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E187" t="n">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5840,23 +5772,31 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n"/>
-      <c r="B188" s="1" t="n"/>
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t>BRAVO</t>
+        </is>
+      </c>
       <c r="C188" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D188" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D188" s="1" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>471</v>
+        <v>99</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5865,31 +5805,31 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>471</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n"/>
       <c r="B189" s="1" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>CARTER</t>
         </is>
       </c>
       <c r="C189" s="1" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Rust</t>
         </is>
       </c>
       <c r="D189" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E189" t="n">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5898,14 +5838,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n"/>
       <c r="B190" s="1" t="inlineStr">
         <is>
-          <t>5704</t>
+          <t>FO WILLIE</t>
         </is>
       </c>
       <c r="C190" s="1" t="inlineStr">
@@ -5915,23 +5855,23 @@
       </c>
       <c r="D190" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190" t="n">
-        <v>225</v>
+        <v>418</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I190" t="n">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191">
@@ -5940,14 +5880,14 @@
       <c r="C191" s="1" t="n"/>
       <c r="D191" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E191" t="n">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -5956,27 +5896,23 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n"/>
       <c r="B192" s="1" t="n"/>
-      <c r="C192" s="1" t="inlineStr">
-        <is>
-          <t>Burgandy</t>
-        </is>
-      </c>
+      <c r="C192" s="1" t="n"/>
       <c r="D192" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E192" t="n">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -5985,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193">
@@ -5998,10 +5934,10 @@
       </c>
       <c r="D193" s="1" t="inlineStr"/>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F193" t="n">
-        <v>675</v>
+        <v>796</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -6010,14 +5946,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>675</v>
+        <v>796</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n"/>
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>BR FONS-1</t>
+          <t>FO-WESLEY</t>
         </is>
       </c>
       <c r="C194" s="1" t="inlineStr">
@@ -6027,14 +5963,14 @@
       </c>
       <c r="D194" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E194" t="n">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -6043,13 +5979,21 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n"/>
-      <c r="B195" s="1" t="n"/>
-      <c r="C195" s="1" t="n"/>
+      <c r="B195" s="1" t="inlineStr">
+        <is>
+          <t>FRANCO</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
       <c r="D195" s="1" t="inlineStr">
         <is>
           <t>XL</t>
@@ -6059,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -6068,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196">
@@ -6076,7 +6020,7 @@
       <c r="B196" s="1" t="n"/>
       <c r="C196" s="1" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Oxblood</t>
         </is>
       </c>
       <c r="D196" s="1" t="inlineStr">
@@ -6088,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -6097,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197">
@@ -6110,10 +6054,10 @@
       </c>
       <c r="D197" s="1" t="inlineStr"/>
       <c r="E197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F197" t="n">
-        <v>535</v>
+        <v>278</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -6122,14 +6066,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>535</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n"/>
       <c r="B198" s="1" t="inlineStr">
         <is>
-          <t>BR ROCK 2</t>
+          <t>G-6400</t>
         </is>
       </c>
       <c r="C198" s="1" t="inlineStr">
@@ -6139,14 +6083,14 @@
       </c>
       <c r="D198" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>498</v>
+        <v>189</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -6155,36 +6099,32 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>498</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n"/>
       <c r="B199" s="1" t="n"/>
-      <c r="C199" s="1" t="inlineStr">
-        <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
+      <c r="C199" s="1" t="n"/>
       <c r="D199" s="1" t="inlineStr">
         <is>
-          <t>6XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E199" t="n">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I199" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -6192,19 +6132,19 @@
       <c r="B200" s="1" t="n"/>
       <c r="C200" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D200" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F200" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -6213,106 +6153,118 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n"/>
       <c r="B201" s="1" t="n"/>
-      <c r="C201" s="1" t="n"/>
+      <c r="C201" s="1" t="inlineStr">
+        <is>
+          <t>Burgundy</t>
+        </is>
+      </c>
       <c r="D201" s="1" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F201" t="n">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I201" t="n">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n"/>
       <c r="B202" s="1" t="n"/>
-      <c r="C202" s="1" t="n"/>
-      <c r="D202" s="1" t="inlineStr">
-        <is>
-          <t>3XL</t>
-        </is>
-      </c>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D202" s="1" t="inlineStr"/>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F202" t="n">
-        <v>269</v>
+        <v>1134</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="I202" t="n">
-        <v>269</v>
+        <v>756</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n"/>
-      <c r="B203" s="1" t="n"/>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="C203" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D203" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D203" s="1" t="inlineStr">
+        <is>
+          <t>5XL</t>
+        </is>
+      </c>
       <c r="E203" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>1605</v>
+        <v>459</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I203" t="n">
-        <v>1605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
       <c r="B204" s="1" t="inlineStr">
         <is>
-          <t>BR-1469</t>
+          <t>JAMES DIN</t>
         </is>
       </c>
       <c r="C204" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Denim</t>
         </is>
       </c>
       <c r="D204" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204" t="n">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -6321,31 +6273,27 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>169</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n"/>
       <c r="B205" s="1" t="inlineStr">
         <is>
-          <t>BRAVO</t>
-        </is>
-      </c>
-      <c r="C205" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+          <t>JOSHUA</t>
+        </is>
+      </c>
+      <c r="C205" s="1" t="inlineStr"/>
       <c r="D205" s="1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E205" t="n">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>99</v>
+        <v>335</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -6354,31 +6302,31 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>99</v>
+        <v>335</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n"/>
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>CARTER</t>
+          <t>KE 72</t>
         </is>
       </c>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>Rust</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D206" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E206" t="n">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -6387,56 +6335,52 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n"/>
-      <c r="B207" s="1" t="inlineStr">
-        <is>
-          <t>FO WILLIE</t>
-        </is>
-      </c>
+      <c r="B207" s="1" t="n"/>
       <c r="C207" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="D207" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>418</v>
+        <v>520</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>209</v>
+        <v>520</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n"/>
       <c r="B208" s="1" t="n"/>
-      <c r="C208" s="1" t="n"/>
-      <c r="D208" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D208" s="1" t="inlineStr"/>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F208" t="n">
-        <v>189</v>
+        <v>1020</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -6445,13 +6389,21 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>189</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n"/>
-      <c r="B209" s="1" t="n"/>
-      <c r="C209" s="1" t="n"/>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>KE 98 DUFFEL</t>
+        </is>
+      </c>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>tobacco</t>
+        </is>
+      </c>
       <c r="D209" s="1" t="inlineStr">
         <is>
           <t>XL</t>
@@ -6461,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>189</v>
+        <v>639</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -6470,23 +6422,31 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>189</v>
+        <v>639</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n"/>
-      <c r="B210" s="1" t="n"/>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>KE YELEK 1</t>
+        </is>
+      </c>
       <c r="C210" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D210" s="1" t="inlineStr"/>
+          <t>Whisky</t>
+        </is>
+      </c>
+      <c r="D210" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="E210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>796</v>
+        <v>275</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -6495,64 +6455,60 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>796</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n"/>
       <c r="B211" s="1" t="inlineStr">
         <is>
-          <t>FO-WESLEY</t>
+          <t>KE-117</t>
         </is>
       </c>
       <c r="C211" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D211" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E211" t="n">
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>149</v>
+        <v>614</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="I211" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n"/>
-      <c r="B212" s="1" t="inlineStr">
-        <is>
-          <t>FRANCO</t>
-        </is>
-      </c>
+      <c r="B212" s="1" t="n"/>
       <c r="C212" s="1" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="D212" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E212" t="n">
         <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>139</v>
+        <v>649</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -6561,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>139</v>
+        <v>649</v>
       </c>
     </row>
     <row r="213">
@@ -6569,19 +6525,15 @@
       <c r="B213" s="1" t="n"/>
       <c r="C213" s="1" t="inlineStr">
         <is>
-          <t>Oxblood</t>
-        </is>
-      </c>
-      <c r="D213" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D213" s="1" t="inlineStr"/>
       <c r="E213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F213" t="n">
-        <v>139</v>
+        <v>1263</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -6590,23 +6542,31 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>139</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n"/>
-      <c r="B214" s="1" t="n"/>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t>LARGO</t>
+        </is>
+      </c>
       <c r="C214" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D214" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D214" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
       <c r="E214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -6615,14 +6575,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n"/>
       <c r="B215" s="1" t="inlineStr">
         <is>
-          <t>G-6400</t>
+          <t>LENT 2</t>
         </is>
       </c>
       <c r="C215" s="1" t="inlineStr">
@@ -6632,23 +6592,23 @@
       </c>
       <c r="D215" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F215" t="n">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="I215" t="n">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216">
@@ -6664,13 +6624,13 @@
         <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -6681,57 +6641,53 @@
       <c r="B217" s="1" t="n"/>
       <c r="C217" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D217" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D217" s="1" t="inlineStr"/>
       <c r="E217" t="n">
+        <v>3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>560</v>
+      </c>
+      <c r="G217" t="n">
         <v>2</v>
       </c>
-      <c r="F217" t="n">
-        <v>378</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0</v>
-      </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="I217" t="n">
-        <v>378</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
-      <c r="B218" s="1" t="n"/>
-      <c r="C218" s="1" t="inlineStr">
-        <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C218" s="1" t="inlineStr"/>
       <c r="D218" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>189</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219">
@@ -6739,100 +6695,92 @@
       <c r="B219" s="1" t="n"/>
       <c r="C219" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D219" s="1" t="inlineStr"/>
+          <t>Oxblood</t>
+        </is>
+      </c>
+      <c r="D219" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="E219" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>1134</v>
+        <v>233</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>756</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n"/>
-      <c r="B220" s="1" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="B220" s="1" t="n"/>
       <c r="C220" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D220" s="1" t="inlineStr">
-        <is>
-          <t>5XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D220" s="1" t="inlineStr"/>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F220" t="n">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n"/>
       <c r="B221" s="1" t="inlineStr">
         <is>
-          <t>JAMES DIN</t>
+          <t>MASSIMO GILLET 1</t>
         </is>
       </c>
       <c r="C221" s="1" t="inlineStr">
         <is>
-          <t>Denim</t>
+          <t>Cognac</t>
         </is>
       </c>
       <c r="D221" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>318</v>
+        <v>124</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I221" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n"/>
-      <c r="B222" s="1" t="inlineStr">
-        <is>
-          <t>JOSHUA</t>
-        </is>
-      </c>
-      <c r="C222" s="1" t="inlineStr"/>
+      <c r="B222" s="1" t="n"/>
+      <c r="C222" s="1" t="n"/>
       <c r="D222" s="1" t="inlineStr">
         <is>
           <t>S</t>
@@ -6842,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>335</v>
+        <v>124</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -6851,31 +6799,23 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>335</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n"/>
-      <c r="B223" s="1" t="inlineStr">
-        <is>
-          <t>KE 72</t>
-        </is>
-      </c>
+      <c r="B223" s="1" t="n"/>
       <c r="C223" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="D223" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D223" s="1" t="inlineStr"/>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F223" t="n">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -6884,52 +6824,64 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>500</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n"/>
-      <c r="B224" s="1" t="n"/>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>MAXSON</t>
+        </is>
+      </c>
       <c r="C224" s="1" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D224" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E224" t="n">
         <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>520</v>
+        <v>189</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I224" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n"/>
-      <c r="B225" s="1" t="n"/>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>MINK</t>
+        </is>
+      </c>
       <c r="C225" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D225" s="1" t="inlineStr"/>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D225" s="1" t="inlineStr">
+        <is>
+          <t>4XL</t>
+        </is>
+      </c>
       <c r="E225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225" t="n">
-        <v>1020</v>
+        <v>415</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -6938,21 +6890,13 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>1020</v>
+        <v>415</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n"/>
-      <c r="B226" s="1" t="inlineStr">
-        <is>
-          <t>KE 98 DUFFEL</t>
-        </is>
-      </c>
-      <c r="C226" s="1" t="inlineStr">
-        <is>
-          <t>tobacco</t>
-        </is>
-      </c>
+      <c r="B226" s="1" t="n"/>
+      <c r="C226" s="1" t="n"/>
       <c r="D226" s="1" t="inlineStr">
         <is>
           <t>XL</t>
@@ -6962,40 +6906,32 @@
         <v>1</v>
       </c>
       <c r="F226" t="n">
-        <v>639</v>
+        <v>375</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="I226" t="n">
-        <v>639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n"/>
-      <c r="B227" s="1" t="inlineStr">
-        <is>
-          <t>KE YELEK 1</t>
-        </is>
-      </c>
+      <c r="B227" s="1" t="n"/>
       <c r="C227" s="1" t="inlineStr">
         <is>
-          <t>Whisky</t>
-        </is>
-      </c>
-      <c r="D227" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D227" s="1" t="inlineStr"/>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F227" t="n">
-        <v>275</v>
+        <v>790</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -7004,60 +6940,64 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>275</v>
+        <v>790</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n"/>
       <c r="B228" s="1" t="inlineStr">
         <is>
-          <t>KE-117</t>
+          <t>ML2-BLAZER</t>
         </is>
       </c>
       <c r="C228" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="D228" s="1" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E228" t="n">
         <v>1</v>
       </c>
       <c r="F228" t="n">
-        <v>614</v>
+        <v>209</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n"/>
-      <c r="B229" s="1" t="n"/>
+      <c r="B229" s="1" t="inlineStr">
+        <is>
+          <t>NAG</t>
+        </is>
+      </c>
       <c r="C229" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D229" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E229" t="n">
         <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>649</v>
+        <v>189</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -7066,23 +7006,27 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>649</v>
+        <v>189</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n"/>
-      <c r="B230" s="1" t="n"/>
-      <c r="C230" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D230" s="1" t="inlineStr"/>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>PILOT</t>
+        </is>
+      </c>
+      <c r="C230" s="1" t="inlineStr"/>
+      <c r="D230" s="1" t="inlineStr">
+        <is>
+          <t>3XL</t>
+        </is>
+      </c>
       <c r="E230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F230" t="n">
-        <v>1263</v>
+        <v>159</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -7091,31 +7035,31 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>1263</v>
+        <v>159</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n"/>
       <c r="B231" s="1" t="inlineStr">
         <is>
-          <t>LARGO</t>
+          <t>RAYAN</t>
         </is>
       </c>
       <c r="C231" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D231" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E231" t="n">
         <v>1</v>
       </c>
       <c r="F231" t="n">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -7124,14 +7068,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>259</v>
+        <v>139</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n"/>
       <c r="B232" s="1" t="inlineStr">
         <is>
-          <t>LENT 2</t>
+          <t>SATIN BACK W/COAT</t>
         </is>
       </c>
       <c r="C232" s="1" t="inlineStr">
@@ -7141,93 +7085,113 @@
       </c>
       <c r="D232" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E232" t="n">
         <v>2</v>
       </c>
       <c r="F232" t="n">
-        <v>350</v>
+        <v>59</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>175</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n"/>
-      <c r="B233" s="1" t="n"/>
-      <c r="C233" s="1" t="n"/>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>TRAP-RYAN</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
       <c r="D233" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E233" t="n">
         <v>1</v>
       </c>
       <c r="F233" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n"/>
-      <c r="B234" s="1" t="n"/>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>amj-5</t>
+        </is>
+      </c>
       <c r="C234" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D234" s="1" t="inlineStr"/>
+          <t>Cognac</t>
+        </is>
+      </c>
+      <c r="D234" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F234" t="n">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>175</v>
+        <v>498</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n"/>
       <c r="B235" s="1" t="inlineStr">
         <is>
-          <t>MASSIMO</t>
-        </is>
-      </c>
-      <c r="C235" s="1" t="inlineStr"/>
+          <t>awl-103</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D235" s="1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E235" t="n">
         <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -7236,52 +7200,64 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>279</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n"/>
-      <c r="B236" s="1" t="n"/>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>harley</t>
+        </is>
+      </c>
       <c r="C236" s="1" t="inlineStr">
         <is>
-          <t>Oxblood</t>
+          <t>Cognac</t>
         </is>
       </c>
       <c r="D236" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E236" t="n">
         <v>1</v>
       </c>
       <c r="F236" t="n">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I236" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n"/>
-      <c r="B237" s="1" t="n"/>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>m-jayden</t>
+        </is>
+      </c>
       <c r="C237" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D237" s="1" t="inlineStr"/>
+          <t>Olive</t>
+        </is>
+      </c>
+      <c r="D237" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="E237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>513</v>
+        <v>99</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -7290,37 +7266,37 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>513</v>
+        <v>99</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n"/>
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>MASSIMO GILLET 1</t>
+          <t>m2-edward</t>
         </is>
       </c>
       <c r="C238" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D238" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E238" t="n">
         <v>1</v>
       </c>
       <c r="F238" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -7328,18 +7304,26 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n"/>
-      <c r="B239" s="1" t="n"/>
-      <c r="C239" s="1" t="n"/>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>mcqeen jacket</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="D239" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E239" t="n">
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -7348,23 +7332,31 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>124</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n"/>
-      <c r="B240" s="1" t="n"/>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>regal</t>
+        </is>
+      </c>
       <c r="C240" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D240" s="1" t="inlineStr"/>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D240" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
       <c r="E240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -7373,49 +7365,41 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>248</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n"/>
       <c r="B241" s="1" t="inlineStr">
         <is>
-          <t>MAXSON</t>
-        </is>
-      </c>
-      <c r="C241" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
+          <t>severin</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="inlineStr"/>
       <c r="D241" s="1" t="inlineStr">
         <is>
-          <t>5XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E241" t="n">
         <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n"/>
-      <c r="B242" s="1" t="inlineStr">
-        <is>
-          <t>MINK</t>
-        </is>
-      </c>
+      <c r="B242" s="1" t="n"/>
       <c r="C242" s="1" t="inlineStr">
         <is>
           <t>Navy</t>
@@ -7423,14 +7407,14 @@
       </c>
       <c r="D242" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E242" t="n">
         <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>415</v>
+        <v>279</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -7439,48 +7423,56 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>415</v>
+        <v>279</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n"/>
       <c r="B243" s="1" t="n"/>
-      <c r="C243" s="1" t="n"/>
-      <c r="D243" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+      <c r="C243" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D243" s="1" t="inlineStr"/>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F243" t="n">
-        <v>375</v>
+        <v>558</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n"/>
-      <c r="B244" s="1" t="n"/>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>stefan biker</t>
+        </is>
+      </c>
       <c r="C244" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D244" s="1" t="inlineStr"/>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D244" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="E244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F244" t="n">
-        <v>790</v>
+        <v>165</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -7489,31 +7481,31 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>790</v>
+        <v>165</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n"/>
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>ML2-BLAZER</t>
+          <t>super bomber</t>
         </is>
       </c>
       <c r="C245" s="1" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D245" s="1" t="inlineStr">
         <is>
-          <t>5XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E245" t="n">
         <v>1</v>
       </c>
       <c r="F245" t="n">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -7522,31 +7514,23 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n"/>
-      <c r="B246" s="1" t="inlineStr">
-        <is>
-          <t>NAG</t>
-        </is>
-      </c>
-      <c r="C246" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B246" s="1" t="n"/>
+      <c r="C246" s="1" t="n"/>
       <c r="D246" s="1" t="inlineStr">
         <is>
-          <t>5XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E246" t="n">
         <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -7555,27 +7539,23 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n"/>
-      <c r="B247" s="1" t="inlineStr">
-        <is>
-          <t>PILOT</t>
-        </is>
-      </c>
-      <c r="C247" s="1" t="inlineStr"/>
+      <c r="B247" s="1" t="n"/>
+      <c r="C247" s="1" t="n"/>
       <c r="D247" s="1" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F247" t="n">
-        <v>159</v>
+        <v>398</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -7584,31 +7564,23 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>159</v>
+        <v>398</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n"/>
-      <c r="B248" s="1" t="inlineStr">
-        <is>
-          <t>RAYAN</t>
-        </is>
-      </c>
+      <c r="B248" s="1" t="n"/>
       <c r="C248" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D248" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D248" s="1" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F248" t="n">
-        <v>139</v>
+        <v>762</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -7617,633 +7589,110 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>139</v>
+        <v>762</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n"/>
-      <c r="B249" s="1" t="inlineStr">
-        <is>
-          <t>SATIN BACK W/COAT</t>
-        </is>
-      </c>
-      <c r="C249" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D249" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B249" s="1" t="inlineStr"/>
+      <c r="C249" s="1" t="inlineStr"/>
+      <c r="D249" s="1" t="inlineStr"/>
       <c r="E249" t="n">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="F249" t="n">
-        <v>59</v>
+        <v>26569</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>4655</v>
       </c>
       <c r="I249" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n"/>
-      <c r="B250" s="1" t="inlineStr">
-        <is>
-          <t>TRAP-RYAN</t>
-        </is>
-      </c>
-      <c r="C250" s="1" t="inlineStr">
-        <is>
-          <t>Cognac</t>
-        </is>
-      </c>
-      <c r="D250" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E250" t="n">
-        <v>1</v>
-      </c>
-      <c r="F250" t="n">
-        <v>360</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n"/>
-      <c r="B251" s="1" t="inlineStr">
-        <is>
-          <t>amj-5</t>
-        </is>
-      </c>
-      <c r="C251" s="1" t="inlineStr">
-        <is>
-          <t>Cognac</t>
-        </is>
-      </c>
-      <c r="D251" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="E251" t="n">
-        <v>2</v>
-      </c>
-      <c r="F251" t="n">
-        <v>498</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n"/>
-      <c r="B252" s="1" t="inlineStr">
-        <is>
-          <t>awl-103</t>
-        </is>
-      </c>
-      <c r="C252" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D252" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>249</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n"/>
-      <c r="B253" s="1" t="inlineStr">
-        <is>
-          <t>harley</t>
-        </is>
-      </c>
-      <c r="C253" s="1" t="inlineStr">
-        <is>
-          <t>Cognac</t>
-        </is>
-      </c>
-      <c r="D253" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E253" t="n">
-        <v>1</v>
-      </c>
-      <c r="F253" t="n">
-        <v>149</v>
-      </c>
-      <c r="G253" t="n">
-        <v>1</v>
-      </c>
-      <c r="H253" t="n">
-        <v>149</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n"/>
-      <c r="B254" s="1" t="inlineStr">
-        <is>
-          <t>m-jayden</t>
-        </is>
-      </c>
-      <c r="C254" s="1" t="inlineStr">
-        <is>
-          <t>Olive</t>
-        </is>
-      </c>
-      <c r="D254" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
-        <v>1</v>
-      </c>
-      <c r="F254" t="n">
-        <v>99</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n"/>
-      <c r="B255" s="1" t="inlineStr">
-        <is>
-          <t>m2-edward</t>
-        </is>
-      </c>
-      <c r="C255" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D255" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>1</v>
-      </c>
-      <c r="F255" t="n">
-        <v>129</v>
-      </c>
-      <c r="G255" t="n">
-        <v>1</v>
-      </c>
-      <c r="H255" t="n">
-        <v>129</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n"/>
-      <c r="B256" s="1" t="inlineStr">
-        <is>
-          <t>mcqeen jacket</t>
-        </is>
-      </c>
-      <c r="C256" s="1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D256" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>1</v>
-      </c>
-      <c r="F256" t="n">
-        <v>249</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n"/>
-      <c r="B257" s="1" t="inlineStr">
-        <is>
-          <t>regal</t>
-        </is>
-      </c>
-      <c r="C257" s="1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D257" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>1</v>
-      </c>
-      <c r="F257" t="n">
-        <v>149</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n"/>
-      <c r="B258" s="1" t="inlineStr">
-        <is>
-          <t>severin</t>
-        </is>
-      </c>
-      <c r="C258" s="1" t="inlineStr"/>
-      <c r="D258" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>1</v>
-      </c>
-      <c r="F258" t="n">
-        <v>279</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n"/>
-      <c r="B259" s="1" t="n"/>
-      <c r="C259" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D259" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>1</v>
-      </c>
-      <c r="F259" t="n">
-        <v>279</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n"/>
-      <c r="B260" s="1" t="n"/>
-      <c r="C260" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D260" s="1" t="inlineStr"/>
-      <c r="E260" t="n">
-        <v>2</v>
-      </c>
-      <c r="F260" t="n">
-        <v>558</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n"/>
-      <c r="B261" s="1" t="inlineStr">
-        <is>
-          <t>stefan biker</t>
-        </is>
-      </c>
-      <c r="C261" s="1" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="D261" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>1</v>
-      </c>
-      <c r="F261" t="n">
-        <v>165</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n"/>
-      <c r="B262" s="1" t="inlineStr">
-        <is>
-          <t>super bomber</t>
-        </is>
-      </c>
-      <c r="C262" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D262" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>1</v>
-      </c>
-      <c r="F262" t="n">
-        <v>165</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n"/>
-      <c r="B263" s="1" t="n"/>
-      <c r="C263" s="1" t="n"/>
-      <c r="D263" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>1</v>
-      </c>
-      <c r="F263" t="n">
-        <v>199</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n"/>
-      <c r="B264" s="1" t="n"/>
-      <c r="C264" s="1" t="n"/>
-      <c r="D264" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>2</v>
-      </c>
-      <c r="F264" t="n">
-        <v>398</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n"/>
-      <c r="B265" s="1" t="n"/>
-      <c r="C265" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D265" s="1" t="inlineStr"/>
-      <c r="E265" t="n">
-        <v>4</v>
-      </c>
-      <c r="F265" t="n">
-        <v>762</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B266" s="1" t="inlineStr"/>
-      <c r="C266" s="1" t="inlineStr"/>
-      <c r="D266" s="1" t="inlineStr"/>
-      <c r="E266" t="n">
-        <v>129</v>
-      </c>
-      <c r="F266" t="n">
-        <v>26569</v>
-      </c>
-      <c r="G266" t="n">
-        <v>21</v>
-      </c>
-      <c r="H266" t="n">
-        <v>4655</v>
-      </c>
-      <c r="I266" t="n">
         <v>21914</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="77">
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C225:C226"/>
     <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C245:C247"/>
     <mergeCell ref="C173:C174"/>
     <mergeCell ref="B103:B106"/>
     <mergeCell ref="B85:B89"/>
     <mergeCell ref="C58:C60"/>
-    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="B215:B217"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="A138:A265"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B152:B154"/>
     <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C183:C185"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B206:B208"/>
     <mergeCell ref="C112:C115"/>
-    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C134:C137"/>
     <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B138:B155"/>
-    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="C128:C133"/>
     <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="B245:B248"/>
     <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A2:A119"/>
     <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C146:C148"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A2:A136"/>
+    <mergeCell ref="C121:C127"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="C221:C222"/>
     <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B177:B181"/>
     <mergeCell ref="C215:C216"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="B181:B186"/>
     <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B223:B225"/>
-    <mergeCell ref="C185:C187"/>
     <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="B238:B240"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B207:B210"/>
     <mergeCell ref="B34:B50"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B121:B138"/>
+    <mergeCell ref="B173:B176"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C145:C150"/>
     <mergeCell ref="B190:B193"/>
     <mergeCell ref="C156:C157"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C138:C144"/>
+    <mergeCell ref="B241:B243"/>
+    <mergeCell ref="C190:C192"/>
     <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="B218:B220"/>
     <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="A121:A248"/>
     <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B177:B180"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C168:C170"/>
     <mergeCell ref="B65:B68"/>
     <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B195:B197"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="C46:C48"/>

--- a/Leather Company - Feb 2024 - Leather Jackets.xlsx
+++ b/Leather Company - Feb 2024 - Leather Jackets.xlsx
@@ -802,13 +802,13 @@
         <v>294</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="I11" t="n">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12">
@@ -1031,13 +1031,13 @@
         <v>1698</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="I20" t="n">
-        <v>1208</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="21">
@@ -1677,13 +1677,13 @@
         <v>219</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>109</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43">
@@ -1885,13 +1885,13 @@
         <v>2471</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>659</v>
+        <v>549</v>
       </c>
       <c r="I50" t="n">
-        <v>1811</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="51">
@@ -2349,13 +2349,13 @@
         <v>895</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>895</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2399,13 +2399,13 @@
         <v>2685</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>2685</v>
+        <v>1790</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>895</v>
       </c>
     </row>
     <row r="69">
@@ -3749,13 +3749,13 @@
         <v>587</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
+        <v>199</v>
+      </c>
+      <c r="I114" t="n">
         <v>388</v>
-      </c>
-      <c r="I114" t="n">
-        <v>198</v>
       </c>
     </row>
     <row r="115">
@@ -3799,13 +3799,13 @@
         <v>1349</v>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
-        <v>587</v>
+        <v>398</v>
       </c>
       <c r="I116" t="n">
-        <v>762</v>
+        <v>951</v>
       </c>
     </row>
     <row r="117">
